--- a/参考資料/開発環境構築.xlsx
+++ b/参考資料/開発環境構築.xlsx
@@ -2714,6 +2714,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>157524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10837333"/>
+          <a:ext cx="18285714" cy="9809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3126,9 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
